--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26950" windowHeight="13160"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -31,12 +31,6 @@
     <t>开荒前置建筑</t>
   </si>
   <si>
-    <t>建造条件-大厅等级</t>
-  </si>
-  <si>
-    <t>建造/升级消耗</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -58,12 +52,6 @@
     <t>PreFacility</t>
   </si>
   <si>
-    <t>LobbyLevelRequire</t>
-  </si>
-  <si>
-    <t>UnlockCost</t>
-  </si>
-  <si>
     <t>讲武堂</t>
   </si>
   <si>
@@ -76,22 +64,58 @@
     <t>Lobby</t>
   </si>
   <si>
-    <t>东厢房</t>
+    <t>东厢房甲</t>
   </si>
   <si>
     <t>这是一个东厢房</t>
   </si>
   <si>
-    <t>LivableRoomEast</t>
-  </si>
-  <si>
-    <t>西厢房</t>
+    <t>LivableRoomEast1</t>
+  </si>
+  <si>
+    <t>东厢房乙</t>
+  </si>
+  <si>
+    <t>LivableRoomEast2</t>
+  </si>
+  <si>
+    <t>东厢房丙</t>
+  </si>
+  <si>
+    <t>LivableRoomEast3</t>
+  </si>
+  <si>
+    <t>东厢房丁</t>
+  </si>
+  <si>
+    <t>LivableRoomEast4</t>
+  </si>
+  <si>
+    <t>西厢房戊</t>
   </si>
   <si>
     <t>这是一个西厢房</t>
   </si>
   <si>
-    <t>LivableRoomWest</t>
+    <t>LivableRoomWest2</t>
+  </si>
+  <si>
+    <t>西厢房己</t>
+  </si>
+  <si>
+    <t>LivableRoomWest3</t>
+  </si>
+  <si>
+    <t>西厢房庚</t>
+  </si>
+  <si>
+    <t>LivableRoomWest4</t>
+  </si>
+  <si>
+    <t>西厢房辛</t>
+  </si>
+  <si>
+    <t>LivableRoomWest5</t>
   </si>
   <si>
     <t>仓库</t>
@@ -198,11 +222,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -221,44 +245,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,13 +267,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -287,16 +274,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,9 +312,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,17 +335,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,10 +367,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -379,31 +403,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,151 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,35 +608,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,17 +642,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,11 +677,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1193,28 +1217,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.25454545454545" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.1272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.4545454545455" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.3727272727273" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.2727272727273" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.3727272727273" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="24.5454545454545" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.25833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.4583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="24.5416666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1227,1862 +1249,1467 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1">
-        <v>7</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="1">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1">
-        <v>9</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="1">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="1">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1">
-        <v>12</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="1">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="1:6">
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="1:6">
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-    </row>
-    <row r="92" spans="1:6">
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-    </row>
-    <row r="97" spans="1:6">
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-    </row>
-    <row r="98" spans="1:6">
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-    </row>
-    <row r="99" spans="1:6">
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-    </row>
-    <row r="100" spans="1:6">
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-    </row>
-    <row r="101" spans="1:6">
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-    </row>
-    <row r="102" spans="1:6">
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-    </row>
-    <row r="103" spans="1:6">
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-    </row>
-    <row r="104" spans="1:6">
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-    </row>
-    <row r="105" spans="1:6">
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-    </row>
-    <row r="106" spans="1:6">
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-    </row>
-    <row r="107" spans="1:6">
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-    </row>
-    <row r="108" spans="1:6">
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-    </row>
-    <row r="110" spans="1:6">
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-    </row>
-    <row r="111" spans="1:6">
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-    </row>
-    <row r="112" spans="1:6">
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-    </row>
-    <row r="113" spans="1:6">
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-    </row>
-    <row r="114" spans="1:6">
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-    </row>
-    <row r="115" spans="1:6">
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-    </row>
-    <row r="116" spans="1:6">
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
-    </row>
-    <row r="117" spans="1:6">
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
-    </row>
-    <row r="118" spans="1:6">
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
-    </row>
-    <row r="119" spans="1:6">
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
-    </row>
-    <row r="121" spans="1:6">
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-    </row>
-    <row r="122" spans="1:6">
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-    </row>
-    <row r="123" spans="1:6">
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-    </row>
-    <row r="124" spans="1:6">
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-    </row>
-    <row r="125" spans="1:6">
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-    </row>
-    <row r="126" spans="1:6">
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
-    </row>
-    <row r="127" spans="1:6">
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
-    </row>
-    <row r="128" spans="1:6">
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
-    </row>
-    <row r="129" spans="1:6">
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
-    </row>
-    <row r="130" spans="1:6">
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
-    </row>
-    <row r="131" spans="1:6">
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
-    </row>
-    <row r="132" spans="1:6">
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132"/>
-      <c r="E132"/>
-      <c r="F132"/>
-    </row>
-    <row r="133" spans="1:6">
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
-    </row>
-    <row r="134" spans="1:6">
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
-    </row>
-    <row r="135" spans="1:6">
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
-    </row>
-    <row r="136" spans="1:6">
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
-    </row>
-    <row r="137" spans="1:6">
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
-    </row>
-    <row r="138" spans="1:6">
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
-    </row>
-    <row r="139" spans="1:6">
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
-    </row>
-    <row r="140" spans="1:6">
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140"/>
-      <c r="E140"/>
-      <c r="F140"/>
-    </row>
-    <row r="141" spans="1:6">
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141"/>
-      <c r="E141"/>
-      <c r="F141"/>
-    </row>
-    <row r="142" spans="1:6">
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142"/>
-    </row>
-    <row r="143" spans="1:6">
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
-    </row>
-    <row r="144" spans="1:6">
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-    </row>
-    <row r="145" spans="1:6">
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145"/>
-    </row>
-    <row r="146" spans="1:6">
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146"/>
-      <c r="E146"/>
-      <c r="F146"/>
-    </row>
-    <row r="147" spans="1:6">
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147"/>
-      <c r="E147"/>
-      <c r="F147"/>
-    </row>
-    <row r="148" spans="1:6">
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-    </row>
-    <row r="149" spans="1:6">
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149"/>
-      <c r="E149"/>
-      <c r="F149"/>
-    </row>
-    <row r="150" spans="1:6">
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150"/>
-      <c r="E150"/>
-      <c r="F150"/>
-    </row>
-    <row r="151" spans="1:6">
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
-    </row>
-    <row r="152" spans="1:6">
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
-    </row>
-    <row r="153" spans="1:6">
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153"/>
-    </row>
-    <row r="154" spans="1:6">
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154"/>
-      <c r="E154"/>
-      <c r="F154"/>
-    </row>
-    <row r="155" spans="1:6">
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155"/>
-    </row>
-    <row r="156" spans="1:6">
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
-    </row>
-    <row r="157" spans="1:6">
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157"/>
-    </row>
-    <row r="158" spans="1:6">
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158"/>
-    </row>
-    <row r="159" spans="1:6">
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159"/>
-    </row>
-    <row r="160" spans="1:6">
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160"/>
-    </row>
-    <row r="161" spans="1:6">
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161"/>
-      <c r="E161"/>
-      <c r="F161"/>
-    </row>
-    <row r="162" spans="1:6">
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162"/>
-      <c r="E162"/>
-      <c r="F162"/>
-    </row>
-    <row r="163" spans="1:6">
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163"/>
-      <c r="E163"/>
-      <c r="F163"/>
-    </row>
-    <row r="164" spans="1:6">
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164"/>
-      <c r="E164"/>
-      <c r="F164"/>
-    </row>
-    <row r="165" spans="1:6">
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165"/>
-      <c r="E165"/>
-      <c r="F165"/>
-    </row>
-    <row r="166" spans="1:6">
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166"/>
-      <c r="E166"/>
-      <c r="F166"/>
-    </row>
-    <row r="167" spans="1:6">
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167"/>
-      <c r="E167"/>
-      <c r="F167"/>
-    </row>
-    <row r="168" spans="1:6">
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168"/>
-      <c r="E168"/>
-      <c r="F168"/>
-    </row>
-    <row r="169" spans="1:6">
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169"/>
-      <c r="E169"/>
-      <c r="F169"/>
-    </row>
-    <row r="170" spans="1:6">
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170"/>
-      <c r="E170"/>
-      <c r="F170"/>
-    </row>
-    <row r="171" spans="1:6">
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171"/>
-      <c r="E171"/>
-      <c r="F171"/>
-    </row>
-    <row r="172" spans="1:6">
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172"/>
-      <c r="E172"/>
-      <c r="F172"/>
-    </row>
-    <row r="173" spans="1:6">
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173"/>
-      <c r="E173"/>
-      <c r="F173"/>
-    </row>
-    <row r="174" spans="1:6">
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174"/>
-      <c r="E174"/>
-      <c r="F174"/>
-    </row>
-    <row r="175" spans="1:6">
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175"/>
-      <c r="E175"/>
-      <c r="F175"/>
-    </row>
-    <row r="176" spans="1:6">
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176"/>
-      <c r="E176"/>
-      <c r="F176"/>
-    </row>
-    <row r="177" spans="1:6">
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177"/>
-      <c r="E177"/>
-      <c r="F177"/>
-    </row>
-    <row r="178" spans="1:6">
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178"/>
-      <c r="E178"/>
-      <c r="F178"/>
-    </row>
-    <row r="179" spans="1:6">
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179"/>
-      <c r="E179"/>
-      <c r="F179"/>
-    </row>
-    <row r="180" spans="1:6">
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180"/>
-      <c r="E180"/>
-      <c r="F180"/>
-    </row>
-    <row r="181" spans="1:6">
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181"/>
-      <c r="E181"/>
-      <c r="F181"/>
-    </row>
-    <row r="182" spans="1:6">
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182"/>
-      <c r="E182"/>
-      <c r="F182"/>
-    </row>
-    <row r="183" spans="1:6">
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183"/>
-      <c r="E183"/>
-      <c r="F183"/>
-    </row>
-    <row r="184" spans="1:6">
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184"/>
-      <c r="E184"/>
-      <c r="F184"/>
-    </row>
-    <row r="185" spans="1:6">
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185"/>
-      <c r="E185"/>
-      <c r="F185"/>
-    </row>
-    <row r="186" spans="1:6">
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186"/>
-      <c r="E186"/>
-      <c r="F186"/>
-    </row>
-    <row r="187" spans="1:6">
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187"/>
-      <c r="E187"/>
-      <c r="F187"/>
-    </row>
-    <row r="188" spans="1:6">
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188"/>
-      <c r="E188"/>
-      <c r="F188"/>
-    </row>
-    <row r="189" spans="1:6">
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189"/>
-      <c r="E189"/>
-      <c r="F189"/>
-    </row>
-    <row r="190" spans="1:6">
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190"/>
-      <c r="E190"/>
-      <c r="F190"/>
-    </row>
-    <row r="191" spans="1:6">
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191"/>
-      <c r="E191"/>
-      <c r="F191"/>
-    </row>
-    <row r="192" spans="1:6">
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192"/>
-      <c r="E192"/>
-      <c r="F192"/>
-    </row>
-    <row r="193" spans="1:6">
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193"/>
-      <c r="E193"/>
-      <c r="F193"/>
-    </row>
-    <row r="194" spans="1:6">
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194"/>
-      <c r="E194"/>
-      <c r="F194"/>
-    </row>
-    <row r="195" spans="1:6">
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195"/>
-      <c r="E195"/>
-      <c r="F195"/>
-    </row>
-    <row r="196" spans="1:6">
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196"/>
-      <c r="E196"/>
-      <c r="F196"/>
-    </row>
-    <row r="197" spans="1:6">
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197"/>
-      <c r="E197"/>
-      <c r="F197"/>
-    </row>
-    <row r="198" spans="1:6">
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198"/>
-      <c r="E198"/>
-      <c r="F198"/>
-    </row>
-    <row r="199" spans="1:6">
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199"/>
-      <c r="E199"/>
-      <c r="F199"/>
-    </row>
-    <row r="200" spans="1:6">
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200"/>
-      <c r="E200"/>
-      <c r="F200"/>
-    </row>
-    <row r="201" spans="1:6">
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201"/>
-      <c r="E201"/>
-      <c r="F201"/>
-    </row>
-    <row r="202" spans="1:6">
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202"/>
-      <c r="E202"/>
-      <c r="F202"/>
-    </row>
-    <row r="203" spans="1:6">
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
-    </row>
-    <row r="204" spans="1:6">
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204"/>
-      <c r="E204"/>
-      <c r="F204"/>
-    </row>
-    <row r="205" spans="1:6">
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205"/>
-      <c r="E205"/>
-      <c r="F205"/>
     </row>
   </sheetData>
   <sortState ref="A3:C15">

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26950" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,25 +103,25 @@
     <t>盖在讲武堂的西边，所以叫西厢房。</t>
   </si>
   <si>
-    <t>LivableRoomWest2</t>
+    <t>LivableRoomWest1</t>
   </si>
   <si>
     <t>西厢房己</t>
   </si>
   <si>
-    <t>LivableRoomWest3</t>
+    <t>LivableRoomWest2</t>
   </si>
   <si>
     <t>西厢房庚</t>
   </si>
   <si>
-    <t>LivableRoomWest4</t>
+    <t>LivableRoomWest3</t>
   </si>
   <si>
     <t>西厢房辛</t>
   </si>
   <si>
-    <t>LivableRoomWest5</t>
+    <t>LivableRoomWest4</t>
   </si>
   <si>
     <t>仓库</t>
@@ -240,16 +240,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +263,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -272,7 +279,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,15 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,39 +353,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,15 +370,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -371,14 +378,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,19 +399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,31 +423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,25 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,13 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +483,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,61 +555,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,17 +608,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,6 +641,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -654,6 +678,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,49 +705,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,133 +723,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,20 +1215,20 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.87272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.6272727272727" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.3727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5454545454545" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:16384">
+    <row r="1" spans="1:16384">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17624,7 +17624,7 @@
       <c r="XFC1" s="3"/>
       <c r="XFD1" s="3"/>
     </row>
-    <row r="2" ht="14.25" spans="1:16384">
+    <row r="2" spans="1:16384">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -34020,7 +34020,7 @@
       <c r="XFC2" s="3"/>
       <c r="XFD2" s="3"/>
     </row>
-    <row r="3" ht="14.25" spans="1:16384">
+    <row r="3" spans="1:16384">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -50416,7 +50416,7 @@
       <c r="XFC3" s="3"/>
       <c r="XFD3" s="3"/>
     </row>
-    <row r="4" ht="14.25" spans="1:16384">
+    <row r="4" spans="1:16384">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26950" windowHeight="13160"/>
+    <workbookView windowWidth="25540" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>这是一个讲武堂</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Lobby</t>
@@ -199,10 +196,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -221,52 +218,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +238,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -286,17 +253,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,15 +303,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,27 +346,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -379,61 +376,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,121 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,13 +585,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,31 +604,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,17 +624,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,7 +658,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,133 +700,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,7 +1195,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1302,7 +1299,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1321,22 +1318,19 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1344,18 +1338,18 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1">
@@ -1364,18 +1358,18 @@
       <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="1">
@@ -1384,18 +1378,18 @@
       <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="1">
@@ -1404,18 +1398,18 @@
       <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="1">
@@ -1424,18 +1418,18 @@
       <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="1">
@@ -1444,18 +1438,18 @@
       <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="1">
@@ -1464,18 +1458,18 @@
       <c r="F12" s="1">
         <v>7</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="1">
@@ -1484,18 +1478,18 @@
       <c r="F13" s="1">
         <v>8</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="1">
@@ -1504,18 +1498,18 @@
       <c r="F14" s="1">
         <v>9</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="1">
@@ -1524,18 +1518,18 @@
       <c r="F15" s="1">
         <v>10</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="1">
@@ -1544,18 +1538,18 @@
       <c r="F16" s="1">
         <v>11</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="1">
@@ -1564,18 +1558,18 @@
       <c r="F17" s="1">
         <v>12</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:8">
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="1">
@@ -1583,9 +1577,6 @@
       </c>
       <c r="F18" s="1">
         <v>13</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26950" windowHeight="13160"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,8 +219,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -240,6 +240,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -248,38 +257,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,7 +280,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,8 +309,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,19 +324,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,22 +349,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -378,7 +364,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,7 +399,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,61 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,13 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,13 +513,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,13 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,49 +567,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,6 +608,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -621,6 +651,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -655,66 +705,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,133 +723,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,20 +1215,20 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.87272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.6272727272727" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.3727272727273" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5416666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384">
+    <row r="1" ht="14.25" spans="1:16384">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17624,7 +17624,7 @@
       <c r="XFC1" s="3"/>
       <c r="XFD1" s="3"/>
     </row>
-    <row r="2" spans="1:16384">
+    <row r="2" ht="14.25" spans="1:16384">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -34020,7 +34020,7 @@
       <c r="XFC2" s="3"/>
       <c r="XFD2" s="3"/>
     </row>
-    <row r="3" spans="1:16384">
+    <row r="3" ht="14.25" spans="1:16384">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -50416,7 +50416,7 @@
       <c r="XFC3" s="3"/>
       <c r="XFD3" s="3"/>
     </row>
-    <row r="4" spans="1:16384">
+    <row r="4" ht="14.25" spans="1:16384">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>枚举名</t>
+  </si>
+  <si>
+    <t>解锁等级</t>
+  </si>
+  <si>
+    <t>建造顺序</t>
   </si>
   <si>
     <t>A</t>
@@ -88,6 +94,9 @@
     <t>东厢房丙</t>
   </si>
   <si>
+    <t>KongfuLibrary</t>
+  </si>
+  <si>
     <t>LivableRoomEast3</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t>习武之人虽不图荣华富贵，但基本的物资补给还是要有的。</t>
   </si>
   <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
     <t>Warehouse</t>
   </si>
   <si>
@@ -157,16 +169,10 @@
     <t>传闻有扫地僧隐居于此，武功盖世敌手难寻。</t>
   </si>
   <si>
-    <t>KongfuLibrary</t>
-  </si>
-  <si>
     <t>伙房</t>
   </si>
   <si>
     <t>人是铁，饭是钢，一顿不吃饿得慌。</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
   </si>
   <si>
     <t>锻造屋</t>
@@ -219,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -240,9 +246,100 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,107 +353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -378,7 +376,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,25 +405,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,25 +459,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,43 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +561,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,43 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,54 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -677,6 +635,69 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -690,31 +711,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,133 +729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,17 +1221,17 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
     <col min="4" max="5" width="19.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5416666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="7.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:16384">
@@ -1244,8 +1250,12 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -17626,22 +17636,26 @@
     </row>
     <row r="2" ht="14.25" spans="1:16384">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -34022,22 +34036,26 @@
     </row>
     <row r="3" ht="14.25" spans="1:16384">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -50418,16 +50436,16 @@
     </row>
     <row r="4" ht="14.25" spans="1:16384">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -66810,293 +66828,392 @@
       <c r="XFC4" s="3"/>
       <c r="XFD4" s="3"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>9</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
+    <row r="18" s="1" customFormat="1" spans="1:7">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -67104,16 +67221,14 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -67121,16 +67236,14 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4">

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26960" windowHeight="11780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -226,8 +226,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -246,6 +246,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -253,9 +261,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,45 +284,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -331,15 +308,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,6 +317,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,8 +345,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,9 +383,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,7 +405,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,25 +507,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,61 +549,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,73 +579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,6 +614,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -625,26 +640,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,6 +662,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -675,24 +684,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,16 +702,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,133 +729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,20 +1221,20 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.87272727272727" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="7.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.3727272727273" style="1" customWidth="1"/>
+    <col min="6" max="7" width="7.37272727272727" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:16384">
+    <row r="1" spans="1:16384">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17634,7 +17634,7 @@
       <c r="XFC1" s="3"/>
       <c r="XFD1" s="3"/>
     </row>
-    <row r="2" ht="14.25" spans="1:16384">
+    <row r="2" spans="1:16384">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -34034,7 +34034,7 @@
       <c r="XFC2" s="3"/>
       <c r="XFD2" s="3"/>
     </row>
-    <row r="3" ht="14.25" spans="1:16384">
+    <row r="3" spans="1:16384">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -50434,7 +50434,7 @@
       <c r="XFC3" s="3"/>
       <c r="XFD3" s="3"/>
     </row>
-    <row r="4" ht="14.25" spans="1:16384">
+    <row r="4" spans="1:16384">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -67226,7 +67226,9 @@
       <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>63</v>
       </c>
@@ -67241,7 +67243,9 @@
       <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>66</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26960" windowHeight="11780"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,9 +246,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,28 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -292,15 +269,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,22 +300,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -339,15 +308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,6 +316,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,6 +351,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -383,8 +374,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,7 +405,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +501,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,163 +579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,30 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -658,6 +634,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,6 +697,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -717,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,133 +729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,20 +1221,20 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.87272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.3727272727273" style="1" customWidth="1"/>
-    <col min="6" max="7" width="7.37272727272727" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="7.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384">
+    <row r="1" ht="14.25" spans="1:16384">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17634,7 +17634,7 @@
       <c r="XFC1" s="3"/>
       <c r="XFD1" s="3"/>
     </row>
-    <row r="2" spans="1:16384">
+    <row r="2" ht="14.25" spans="1:16384">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -34034,7 +34034,7 @@
       <c r="XFC2" s="3"/>
       <c r="XFD2" s="3"/>
     </row>
-    <row r="3" spans="1:16384">
+    <row r="3" ht="14.25" spans="1:16384">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -50434,7 +50434,7 @@
       <c r="XFC3" s="3"/>
       <c r="XFD3" s="3"/>
     </row>
-    <row r="4" spans="1:16384">
+    <row r="4" ht="14.25" spans="1:16384">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -225,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -268,7 +268,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -276,8 +312,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,36 +359,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,37 +375,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -382,11 +382,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -411,7 +411,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +471,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,157 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,6 +619,39 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,49 +711,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,133 +729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,7 +1221,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -225,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -268,9 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,65 +278,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,8 +300,36 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,6 +344,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -382,11 +382,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -411,7 +411,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +459,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,157 +579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,39 +619,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,16 +678,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,133 +729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,7 +1221,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>开荒前置建筑</t>
+  </si>
+  <si>
+    <t>工作类型</t>
   </si>
   <si>
     <t>枚举名</t>
@@ -64,6 +67,9 @@
     <t>PreFacility</t>
   </si>
   <si>
+    <t>WorkType</t>
+  </si>
+  <si>
     <t>讲武堂</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Sweep</t>
   </si>
   <si>
     <t>Lobby</t>
@@ -142,6 +151,9 @@
     <t>Kitchen</t>
   </si>
   <si>
+    <t>Carry</t>
+  </si>
+  <si>
     <t>Warehouse</t>
   </si>
   <si>
@@ -175,10 +187,16 @@
     <t>人是铁，饭是钢，一顿不吃饿得慌。</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
     <t>锻造屋</t>
   </si>
   <si>
     <t>好马配好鞍，宝刀赠英雄，练武之人怎么能没有好装备。</t>
+  </si>
+  <si>
+    <t>Forge</t>
   </si>
   <si>
     <t>ForgeHouse</t>
@@ -188,6 +206,9 @@
   </si>
   <si>
     <t>行走江湖难免磕磕绊绊，这里有各种神药助你恢复元气。</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
   </si>
   <si>
     <t>Baicaohu</t>
@@ -247,6 +268,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -254,23 +282,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,87 +295,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,9 +317,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,7 +426,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,13 +486,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,25 +528,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,19 +564,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,13 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,85 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,15 +635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -634,6 +646,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,17 +683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -675,6 +694,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,34 +732,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,88 +750,67 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,43 +819,64 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,7 +1242,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1229,9 +1250,11 @@
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="7.375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:16384">
@@ -1256,7 +1279,9 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -17636,27 +17661,29 @@
     </row>
     <row r="2" ht="14.25" spans="1:16384">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -34036,27 +34063,29 @@
     </row>
     <row r="3" ht="14.25" spans="1:16384">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -50436,18 +50465,20 @@
     </row>
     <row r="4" ht="14.25" spans="1:16384">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -66828,426 +66859,483 @@
       <c r="XFC4" s="3"/>
       <c r="XFD4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>4</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1">
         <v>5</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1">
         <v>7</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="1">
         <v>4</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
+    <row r="18" s="1" customFormat="1" spans="1:8">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="1">
         <v>3</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -67262,1079 +67350,1258 @@
       <c r="C25" s="1"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26"/>
+      <c r="E26"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27"/>
+      <c r="E27"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28"/>
+      <c r="E28"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29"/>
+      <c r="E29"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30"/>
+      <c r="E30"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31"/>
+      <c r="E31"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32"/>
+      <c r="E32"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33"/>
+      <c r="E33"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34"/>
+      <c r="E34"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35"/>
+      <c r="E35"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36"/>
+      <c r="E36"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37"/>
+      <c r="E37"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38"/>
+      <c r="E38"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39"/>
+      <c r="E39"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40"/>
+      <c r="E40"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41"/>
+      <c r="E41"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42"/>
+      <c r="E42"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43"/>
+      <c r="E43"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44"/>
+      <c r="E44"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45"/>
+      <c r="E45"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46"/>
+      <c r="E46"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47"/>
+      <c r="E47"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48"/>
+      <c r="E48"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49"/>
+      <c r="E49"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50"/>
+      <c r="E50"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51"/>
+      <c r="E51"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52"/>
+      <c r="E52"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53"/>
+      <c r="E53"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54"/>
+      <c r="E54"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55"/>
+      <c r="E55"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56"/>
+      <c r="E56"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57"/>
+      <c r="E57"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58"/>
+      <c r="E58"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59"/>
+      <c r="E59"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60"/>
+      <c r="E60"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61"/>
+      <c r="E61"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62"/>
+      <c r="E62"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63"/>
+      <c r="E63"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64"/>
+      <c r="E64"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65"/>
+      <c r="E65"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66"/>
+      <c r="E66"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67"/>
+      <c r="E67"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68"/>
+      <c r="E68"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69"/>
+      <c r="E69"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70"/>
+      <c r="E70"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71"/>
+      <c r="E71"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72"/>
+      <c r="E72"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73"/>
+      <c r="E73"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74"/>
+      <c r="E74"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75"/>
+      <c r="E75"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76"/>
+      <c r="E76"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77"/>
+      <c r="E77"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78"/>
+      <c r="E78"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79"/>
+      <c r="E79"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80"/>
+      <c r="E80"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81"/>
+      <c r="E81"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82"/>
+      <c r="E82"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83"/>
+      <c r="E83"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84"/>
+      <c r="E84"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85"/>
+      <c r="E85"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86"/>
+      <c r="E86"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87"/>
+      <c r="E87"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88"/>
+      <c r="E88"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89"/>
+      <c r="E89"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90"/>
+      <c r="E90"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91"/>
+      <c r="E91"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92"/>
+      <c r="E92"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93"/>
+      <c r="E93"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94"/>
+      <c r="E94"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:5">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95"/>
+      <c r="E95"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:5">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96"/>
+      <c r="E96"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97"/>
+      <c r="E97"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:5">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98"/>
+      <c r="E98"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:5">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99"/>
+      <c r="E99"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100"/>
+      <c r="E100"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101"/>
+      <c r="E101"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:5">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102"/>
+      <c r="E102"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:5">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103"/>
+      <c r="E103"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:5">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104"/>
+      <c r="E104"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:5">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105"/>
+      <c r="E105"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:5">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106"/>
+      <c r="E106"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:5">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107"/>
+      <c r="E107"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:5">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108"/>
+      <c r="E108"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:5">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109"/>
+      <c r="E109"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:5">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110"/>
+      <c r="E110"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:5">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111"/>
+      <c r="E111"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:5">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112"/>
+      <c r="E112"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:5">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113"/>
+      <c r="E113"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:5">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114"/>
+      <c r="E114"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115"/>
+      <c r="E115"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:5">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116"/>
+      <c r="E116"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:5">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117"/>
+      <c r="E117"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:5">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118"/>
+      <c r="E118"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:5">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119"/>
+      <c r="E119"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:5">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120"/>
+      <c r="E120"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:5">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121"/>
+      <c r="E121"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:5">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122"/>
+      <c r="E122"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:5">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123"/>
+      <c r="E123"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:5">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124"/>
+      <c r="E124"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:5">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125"/>
+      <c r="E125"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:5">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126"/>
+      <c r="E126"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:5">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127"/>
+      <c r="E127"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:5">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128"/>
+      <c r="E128"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:5">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129"/>
+      <c r="E129"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:5">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130"/>
+      <c r="E130"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:5">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131"/>
+      <c r="E131"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:5">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132"/>
+      <c r="E132"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:5">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133"/>
+      <c r="E133"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:5">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134"/>
+      <c r="E134"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:5">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135"/>
+      <c r="E135"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:5">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136"/>
+      <c r="E136"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:5">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137"/>
+      <c r="E137"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:5">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138"/>
+      <c r="E138"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:5">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139"/>
+      <c r="E139"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:5">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140"/>
+      <c r="E140"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:5">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141"/>
+      <c r="E141"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:5">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142"/>
+      <c r="E142"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:5">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143"/>
+      <c r="E143"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:5">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144"/>
+      <c r="E144"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:5">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145"/>
+      <c r="E145"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:5">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146"/>
+      <c r="E146"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:5">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147"/>
+      <c r="E147"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:5">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148"/>
+      <c r="E148"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:5">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149"/>
+      <c r="E149"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:5">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150"/>
+      <c r="E150"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:5">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151"/>
+      <c r="E151"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:5">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152"/>
+      <c r="E152"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:5">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153"/>
+      <c r="E153"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:5">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154"/>
+      <c r="E154"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:5">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155"/>
+      <c r="E155"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:5">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156"/>
+      <c r="E156"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:5">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157"/>
+      <c r="E157"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:5">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158"/>
+      <c r="E158"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:5">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159"/>
+      <c r="E159"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:5">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160"/>
+      <c r="E160"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:5">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161"/>
+      <c r="E161"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:5">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162"/>
+      <c r="E162"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:5">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163"/>
+      <c r="E163"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:5">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164"/>
+      <c r="E164"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:5">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165"/>
+      <c r="E165"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:5">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166"/>
+      <c r="E166"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:5">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167"/>
+      <c r="E167"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:5">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168"/>
+      <c r="E168"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:5">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169"/>
+      <c r="E169"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:5">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170"/>
+      <c r="E170"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:5">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171"/>
+      <c r="E171"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:5">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172"/>
+      <c r="E172"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:5">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173"/>
+      <c r="E173"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:5">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174"/>
+      <c r="E174"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:5">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175"/>
+      <c r="E175"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:5">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176"/>
+      <c r="E176"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:5">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177"/>
+      <c r="E177"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:5">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178"/>
+      <c r="E178"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:5">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179"/>
+      <c r="E179"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:5">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180"/>
+      <c r="E180"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:5">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181"/>
+      <c r="E181"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:5">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182"/>
+      <c r="E182"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:5">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183"/>
+      <c r="E183"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:5">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184"/>
+      <c r="E184"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:5">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185"/>
+      <c r="E185"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:5">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186"/>
+      <c r="E186"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:5">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187"/>
+      <c r="E187"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:5">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188"/>
+      <c r="E188"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:5">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189"/>
+      <c r="E189"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:5">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190"/>
+      <c r="E190"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:5">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191"/>
+      <c r="E191"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:5">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192"/>
+      <c r="E192"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:5">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193"/>
+      <c r="E193"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:5">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194"/>
+      <c r="E194"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:5">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195"/>
+      <c r="E195"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:5">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196"/>
+      <c r="E196"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:5">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197"/>
+      <c r="E197"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:5">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198"/>
+      <c r="E198"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:5">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199"/>
+      <c r="E199"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:5">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200"/>
+      <c r="E200"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:5">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201"/>
+      <c r="E201"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:5">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202"/>
+      <c r="E202"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:5">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203"/>
+      <c r="E203"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:5">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204"/>
+      <c r="E204"/>
     </row>
   </sheetData>
   <sortState ref="A3:C15">

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -88,7 +88,7 @@
     <t>东厢房甲</t>
   </si>
   <si>
-    <t>盖在讲武堂的东边，所以叫东厢房。</t>
+    <t>盖在讲武堂的东边，所以叫东厢房，能住一三五七个人。</t>
   </si>
   <si>
     <t>LivableRoomEast1</t>
@@ -118,7 +118,7 @@
     <t>西厢房戊</t>
   </si>
   <si>
-    <t>盖在讲武堂的西边，所以叫西厢房。</t>
+    <t>盖在讲武堂的西边，所以叫西厢房，能住二四六八个人。</t>
   </si>
   <si>
     <t>LivableRoomWest1</t>
@@ -160,7 +160,7 @@
     <t>东练功场</t>
   </si>
   <si>
-    <t>日出东方，必出英雄豪杰。</t>
+    <t>日出东方，闻鸡起舞，苦练盖世武功，名扬天下。</t>
   </si>
   <si>
     <t>PracticeFieldEast</t>
@@ -169,7 +169,7 @@
     <t>西练功场</t>
   </si>
   <si>
-    <t>月落西山，难觅千杯知音。</t>
+    <t>月落西山，挑灯夜战，必成英雄豪杰，威震八方。</t>
   </si>
   <si>
     <t>PracticeFieldWest</t>
@@ -184,7 +184,7 @@
     <t>伙房</t>
   </si>
   <si>
-    <t>人是铁，饭是钢，一顿不吃饿得慌。</t>
+    <t>人是铁，饭是钢，一顿不吃饿得慌。师娘做的饭菜最香了。</t>
   </si>
   <si>
     <t>Cook</t>
@@ -246,9 +246,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -267,8 +267,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,7 +321,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +341,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -302,31 +356,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -349,47 +380,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,7 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -426,7 +426,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,73 +546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +564,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,85 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,6 +635,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -652,17 +661,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -683,6 +685,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -694,26 +705,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,16 +723,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,133 +750,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,14 +1242,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.375" style="1" customWidth="1"/>

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -103,22 +103,22 @@
     <t>东厢房丙</t>
   </si>
   <si>
+    <t>LivableRoomEast3</t>
+  </si>
+  <si>
+    <t>东厢房丁</t>
+  </si>
+  <si>
+    <t>LivableRoomEast4</t>
+  </si>
+  <si>
+    <t>西厢房戊</t>
+  </si>
+  <si>
+    <t>盖在讲武堂的西边，所以叫西厢房，能住二四六八个人。</t>
+  </si>
+  <si>
     <t>KongfuLibrary</t>
-  </si>
-  <si>
-    <t>LivableRoomEast3</t>
-  </si>
-  <si>
-    <t>东厢房丁</t>
-  </si>
-  <si>
-    <t>LivableRoomEast4</t>
-  </si>
-  <si>
-    <t>西厢房戊</t>
-  </si>
-  <si>
-    <t>盖在讲武堂的西边，所以叫西厢房，能住二四六八个人。</t>
   </si>
   <si>
     <t>LivableRoomWest1</t>
@@ -247,9 +247,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -267,6 +267,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -274,142 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -426,187 +426,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,21 +635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -661,6 +646,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,22 +676,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,17 +709,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,10 +738,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,133 +750,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1248,7 +1248,7 @@
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
     <col min="3" max="3" width="54.625" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="8" width="7.375" customWidth="1"/>
@@ -1439,16 +1439,16 @@
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
         <v>11</v>
@@ -1459,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -1471,10 +1471,10 @@
         <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
         <v>13</v>
@@ -1485,13 +1485,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1500,7 +1500,7 @@
         <v>34</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="2">
         <v>7</v>
@@ -1514,10 +1514,10 @@
         <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1526,7 +1526,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="2">
         <v>8</v>
@@ -1540,10 +1540,10 @@
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1566,10 +1566,10 @@
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1578,7 +1578,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="2">
         <v>17</v>
@@ -1647,7 +1647,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1673,13 +1673,13 @@
         <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2">
         <v>2</v>

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -214,31 +214,16 @@
     <t>Baicaohu</t>
   </si>
   <si>
-    <t>巡逻房</t>
-  </si>
-  <si>
-    <t>村子大了，总会有些贼人惦记，一定要守护好我们的家园。</t>
-  </si>
-  <si>
-    <t>PatrolRoom</t>
-  </si>
-  <si>
-    <t>东箭塔</t>
-  </si>
-  <si>
-    <t>从东边射你一箭，叫你有来无回。</t>
-  </si>
-  <si>
-    <t>BartizanEast</t>
-  </si>
-  <si>
-    <t>西箭塔</t>
-  </si>
-  <si>
-    <t>从西边射你一箭，叫你无力回天。</t>
-  </si>
-  <si>
-    <t>BartizanWest</t>
+    <t>镖局</t>
+  </si>
+  <si>
+    <t>练武之人最好的生财之道，人在镖在，镖亡人……我跑~</t>
+  </si>
+  <si>
+    <t>DeliverHouse</t>
+  </si>
+  <si>
+    <t>？</t>
   </si>
 </sst>
 </file>
@@ -248,8 +233,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -274,6 +259,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -284,81 +361,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,11 +375,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,32 +395,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,49 +411,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,133 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,21 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -657,6 +633,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +663,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,31 +719,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,10 +729,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,137 +741,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -890,6 +881,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1237,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1767,74 +1761,30 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>练武之人最好的生财之道，人在镖在，镖亡人……我跑~</t>
   </si>
   <si>
-    <t>DeliverHouse</t>
+    <t>Deliver</t>
   </si>
   <si>
     <t>？</t>
@@ -231,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -253,7 +253,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +269,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +296,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -289,112 +389,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -417,31 +417,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,139 +573,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,32 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -663,6 +637,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,21 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -723,16 +693,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,133 +741,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,21 +1234,22 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="54.625" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="8" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="21.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="79.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="20.1272727272727" customWidth="1"/>
+    <col min="5" max="5" width="14.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="23.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="12.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="11.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1762,7 +1763,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>65</v>
@@ -1771,10 +1772,10 @@
         <v>66</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>67</v>

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -231,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -260,9 +260,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,8 +327,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,19 +358,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,23 +381,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,59 +395,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -417,91 +417,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,85 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,26 +628,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,6 +683,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -691,35 +709,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,10 +729,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,133 +741,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1770,11 +1770,11 @@
       <c r="C21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>19</v>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>67</v>

--- a/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityConfig.xlsx
@@ -217,7 +217,7 @@
     <t>镖局</t>
   </si>
   <si>
-    <t>练武之人最好的生财之道，人在镖在，镖亡人……我跑~</t>
+    <t>练武之人最好的生财之道，人在镖在，镖亡人亡！</t>
   </si>
   <si>
     <t>DeliverHouse</t>
@@ -231,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -253,6 +253,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -260,14 +267,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +334,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -289,20 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -311,86 +389,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,79 +417,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,103 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,6 +631,56 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,66 +723,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,133 +741,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
